--- a/patch/ASM/ToD-DC-MonsterBookSort.xlsx
+++ b/patch/ASM/ToD-DC-MonsterBookSort.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41411A60-6EF6-4C89-8E4A-F270927C8932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="4905" windowWidth="34980" windowHeight="16200" xr2:uid="{99A91F10-062B-472E-AA54-ACC16BB20876}"/>
+    <workbookView xWindow="12390" yWindow="4905" windowWidth="34980" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -765,9 +759,6 @@
     <t>Buer</t>
   </si>
   <si>
-    <t>Kronos EX</t>
-  </si>
-  <si>
     <t>Dymlos</t>
   </si>
   <si>
@@ -1984,13 +1975,16 @@
   </si>
   <si>
     <t>;this goes in ASM/Monster_Book_00066.asm</t>
+  </si>
+  <si>
+    <t>Miktran EX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,27 +2327,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E132E2-7BB9-41D9-88DB-F4F0902771AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F30"/>
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -2364,7 +2358,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <f>HEX2DEC(B2)</f>
         <v>99</v>
@@ -2376,10 +2370,10 @@
         <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <f>HEX2DEC(B3)</f>
         <v>175</v>
@@ -2391,13 +2385,13 @@
         <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <f>HEX2DEC(B4)</f>
         <v>235</v>
@@ -2409,10 +2403,10 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <f>HEX2DEC(B5)</f>
         <v>201</v>
@@ -2424,13 +2418,13 @@
         <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <f>HEX2DEC(B6)</f>
         <v>68</v>
@@ -2442,14 +2436,14 @@
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>".byte 0x"&amp;B2&amp;", 0x"&amp;B3&amp;", 0x"&amp;B4&amp;", 0x"&amp;B5&amp;", 0x"&amp;B6&amp;", 0x"&amp;B7&amp;", 0x"&amp;B8&amp;", 0x"&amp;B9&amp;", 0x"&amp;B10&amp;", 0x"&amp;B11</f>
         <v>.byte 0x63, 0xAF, 0xEB, 0xC9, 0x44, 0xD5, 0x8E, 0xF7, 0xCE, 0x6C</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <f>HEX2DEC(B7)</f>
         <v>213</v>
@@ -2461,14 +2455,14 @@
         <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>".byte 0x"&amp;B12&amp;", 0x"&amp;B13&amp;", 0x"&amp;B14&amp;", 0x"&amp;B15&amp;", 0x"&amp;B16&amp;", 0x"&amp;B17&amp;", 0x"&amp;B18&amp;", 0x"&amp;B19&amp;", 0x"&amp;B20&amp;", 0x"&amp;B21</f>
         <v>.byte 0xA5, 0xE1, 0x5F, 0x0E, 0x2E, 0xA8, 0x0B, 0x77, 0x32, 0x3F</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8">
         <f>HEX2DEC(B8)</f>
         <v>142</v>
@@ -2477,17 +2471,17 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>".byte 0x"&amp;B22&amp;", 0x"&amp;B23&amp;", 0x"&amp;B24&amp;", 0x"&amp;B25&amp;", 0x"&amp;B26&amp;", 0x"&amp;B27&amp;", 0x"&amp;B28&amp;", 0x"&amp;B29&amp;", 0x"&amp;B30&amp;", 0x"&amp;B31</f>
         <v>.byte 0x67, 0x8C, 0x19, 0x34, 0x20, 0x4D, 0xD4, 0xEA, 0x85, 0x24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <f>HEX2DEC(B9)</f>
         <v>247</v>
@@ -2499,14 +2493,14 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>".byte 0x"&amp;B32&amp;", 0x"&amp;B33&amp;", 0x"&amp;B34&amp;", 0x"&amp;B35&amp;", 0x"&amp;B36&amp;", 0x"&amp;B37&amp;", 0x"&amp;B38&amp;", 0x"&amp;B39&amp;", 0x"&amp;B40&amp;", 0x"&amp;B41</f>
         <v>.byte 0xBE, 0x57, 0x68, 0x9A, 0xE2, 0xE7, 0x69, 0x61, 0x60, 0x13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="A10">
         <f>HEX2DEC(B10)</f>
         <v>206</v>
@@ -2515,17 +2509,17 @@
         <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>".byte 0x"&amp;B42&amp;", 0x"&amp;B43&amp;", 0x"&amp;B44&amp;", 0x"&amp;B45&amp;", 0x"&amp;B46&amp;", 0x"&amp;B47&amp;", 0x"&amp;B48&amp;", 0x"&amp;B49&amp;", 0x"&amp;B50&amp;", 0x"&amp;B51</f>
         <v>.byte 0x62, 0x96, 0x6, 0x53, 0x7B, 0x1D, 0xC8, 0x70, 0x45, 0x99</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="A11">
         <f>HEX2DEC(B11)</f>
         <v>108</v>
@@ -2534,17 +2528,17 @@
         <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>".byte 0x"&amp;B52&amp;", 0x"&amp;B53&amp;", 0x"&amp;B54&amp;", 0x"&amp;B55&amp;", 0x"&amp;B56&amp;", 0x"&amp;B57&amp;", 0x"&amp;B58&amp;", 0x"&amp;B59&amp;", 0x"&amp;B60&amp;", 0x"&amp;B61</f>
         <v>.byte 0xB7, 0xBD, 0x28, 0xC3, 0x1F, 0x0D, 0x40, 0xBB, 0x95, 0xA3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12">
         <f>HEX2DEC(B12)</f>
         <v>165</v>
@@ -2553,17 +2547,17 @@
         <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>".byte 0x"&amp;B62&amp;", 0x"&amp;B63&amp;", 0x"&amp;B64&amp;", 0x"&amp;B65&amp;", 0x"&amp;B66&amp;", 0x"&amp;B67&amp;", 0x"&amp;B68&amp;", 0x"&amp;B69&amp;", 0x"&amp;B70&amp;", 0x"&amp;B71</f>
         <v>.byte 0xF1, 0xE6, 0x2C, 0xF0, 0x72, 0x9B, 0x6E, 0xCF, 0xF8, 0x5E</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="A13">
         <f>HEX2DEC(B13)</f>
         <v>225</v>
@@ -2572,17 +2566,17 @@
         <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>".byte 0x"&amp;B72&amp;", 0x"&amp;B73&amp;", 0x"&amp;B74&amp;", 0x"&amp;B75&amp;", 0x"&amp;B76&amp;", 0x"&amp;B77&amp;", 0x"&amp;B78&amp;", 0x"&amp;B79&amp;", 0x"&amp;B80&amp;", 0x"&amp;B81</f>
         <v>.byte 0xF4, 0x59, 0xAA, 0x49, 0x54, 0xC2, 0x97, 0x73, 0x84, 0x4C</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="A14">
         <f>HEX2DEC(B14)</f>
         <v>95</v>
@@ -2591,17 +2585,17 @@
         <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>".byte 0x"&amp;B82&amp;", 0x"&amp;B83&amp;", 0x"&amp;B84&amp;", 0x"&amp;B85&amp;", 0x"&amp;B86&amp;", 0x"&amp;B87&amp;", 0x"&amp;B88&amp;", 0x"&amp;B89&amp;", 0x"&amp;B90&amp;", 0x"&amp;B91</f>
         <v>.byte 0x4A, 0x50, 0xAE, 0xCA, 0x78, 0xD2, 0xCD, 0xA4, 0xC1, 0xA0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15">
         <f>HEX2DEC(B15)</f>
         <v>14</v>
@@ -2613,14 +2607,14 @@
         <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>".byte 0x"&amp;B92&amp;", 0x"&amp;B93&amp;", 0x"&amp;B94&amp;", 0x"&amp;B95&amp;", 0x"&amp;B96&amp;", 0x"&amp;B97&amp;", 0x"&amp;B98&amp;", 0x"&amp;B99&amp;", 0x"&amp;B100&amp;", 0x"&amp;B101</f>
         <v>.byte 0x7E, 0x8A, 0xBC, 0x87, 0xAB, 0x6B, 0xAD, 0x4F, 0x51, 0xF6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="A16">
         <f>HEX2DEC(B16)</f>
         <v>46</v>
@@ -2632,14 +2626,14 @@
         <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>".byte 0x"&amp;B102&amp;", 0x"&amp;B103&amp;", 0x"&amp;B104&amp;", 0x"&amp;B105&amp;", 0x"&amp;B106&amp;", 0x"&amp;B107&amp;", 0x"&amp;B108&amp;", 0x"&amp;B109&amp;", 0x"&amp;B110&amp;", 0x"&amp;B111</f>
         <v>.byte 0x80, 0x7F, 0x81, 0x82, 0x90, 0x29, 0x7D, 0x1B, 0x0A, 0x56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6">
       <c r="A17">
         <f>HEX2DEC(B17)</f>
         <v>168</v>
@@ -2648,17 +2642,17 @@
         <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>".byte 0x"&amp;B112&amp;", 0x"&amp;B113&amp;", 0x"&amp;B114&amp;", 0x"&amp;B115&amp;", 0x"&amp;B116&amp;", 0x"&amp;B117&amp;", 0x"&amp;B118&amp;", 0x"&amp;B119&amp;", 0x"&amp;B120&amp;", 0x"&amp;B121</f>
         <v>.byte 0xB6, 0x98, 0x79, 0x42, 0xA2, 0xDD, 0x65, 0x64, 0x5A, 0xBA</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="A18">
         <f>HEX2DEC(B18)</f>
         <v>11</v>
@@ -2670,14 +2664,14 @@
         <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>".byte 0x"&amp;B122&amp;", 0x"&amp;B123&amp;", 0x"&amp;B124&amp;", 0x"&amp;B125&amp;", 0x"&amp;B126&amp;", 0x"&amp;B127&amp;", 0x"&amp;B128&amp;", 0x"&amp;B129&amp;", 0x"&amp;B130&amp;", 0x"&amp;B131</f>
         <v>.byte 0x11, 0xD6, 0xB8, 0xEE, 0xE5, 0xB2, 0x46, 0x0F, 0x7, 0x9E</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6">
       <c r="A19">
         <f>HEX2DEC(B19)</f>
         <v>119</v>
@@ -2686,17 +2680,17 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>".byte 0x"&amp;B132&amp;", 0x"&amp;B133&amp;", 0x"&amp;B134&amp;", 0x"&amp;B135&amp;", 0x"&amp;B136&amp;", 0x"&amp;B137&amp;", 0x"&amp;B138&amp;", 0x"&amp;B139&amp;", 0x"&amp;B140&amp;", 0x"&amp;B141</f>
-        <v>.byte 0x93, 0x94, 0x8, 0x55, 0x58, 0xDF, 0x31, 0x4, 0x8B, 0x83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+        <v>.byte 0x93, 0x94, 0x8, 0x55, 0xDF, 0x31, 0x4, 0x8B, 0x83, 0x9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <f>HEX2DEC(B20)</f>
         <v>50</v>
@@ -2708,14 +2702,14 @@
         <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>".byte 0x"&amp;B142&amp;", 0x"&amp;B143&amp;", 0x"&amp;B144&amp;", 0x"&amp;B145&amp;", 0x"&amp;B146&amp;", 0x"&amp;B147&amp;", 0x"&amp;B148&amp;", 0x"&amp;B149&amp;", 0x"&amp;B150&amp;", 0x"&amp;B151</f>
-        <v>.byte 0x9, 0x6F, 0xF2, 0xE8, 0x9D, 0x30, 0x86, 0xE3, 0x5, 0xDE</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+        <v>.byte 0x6F, 0xF2, 0xE8, 0x9D, 0x30, 0x86, 0xE3, 0x5, 0xDE, 0x58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <f>HEX2DEC(B21)</f>
         <v>63</v>
@@ -2727,14 +2721,14 @@
         <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>".byte 0x"&amp;B152&amp;", 0x"&amp;B153&amp;", 0x"&amp;B154&amp;", 0x"&amp;B155&amp;", 0x"&amp;B156&amp;", 0x"&amp;B157&amp;", 0x"&amp;B158&amp;", 0x"&amp;B159&amp;", 0x"&amp;B160&amp;", 0x"&amp;B161</f>
         <v>.byte 0x12, 0x35, 0x75, 0x3B, 0x89, 0x26, 0x92, 0xD7, 0x3E, 0xAC</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6">
       <c r="A22">
         <f>HEX2DEC(B22)</f>
         <v>103</v>
@@ -2743,17 +2737,17 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>".byte 0x"&amp;B162&amp;", 0x"&amp;B163&amp;", 0x"&amp;B164&amp;", 0x"&amp;B165&amp;", 0x"&amp;B166&amp;", 0x"&amp;B167&amp;", 0x"&amp;B168&amp;", 0x"&amp;B169&amp;", 0x"&amp;B170&amp;", 0x"&amp;B171</f>
         <v>.byte 0x7A, 0x27, 0xCC, 0x48, 0x6A, 0x33, 0x22, 0x4E, 0x2, 0x66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6">
       <c r="A23">
         <f>HEX2DEC(B23)</f>
         <v>140</v>
@@ -2762,17 +2756,17 @@
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>".byte 0x"&amp;B172&amp;", 0x"&amp;B173&amp;", 0x"&amp;B174&amp;", 0x"&amp;B175&amp;", 0x"&amp;B176&amp;", 0x"&amp;B177&amp;", 0x"&amp;B178&amp;", 0x"&amp;B179&amp;", 0x"&amp;B180&amp;", 0x"&amp;B181</f>
         <v>.byte 0xA6, 0xEF, 0x16, 0xBF, 0x14, 0xEC, 0x41, 0xCB, 0xDC, 0xD0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6">
       <c r="A24">
         <f>HEX2DEC(B24)</f>
         <v>25</v>
@@ -2784,14 +2778,14 @@
         <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>".byte 0x"&amp;B182&amp;", 0x"&amp;B183&amp;", 0x"&amp;B184&amp;", 0x"&amp;B185&amp;", 0x"&amp;B186&amp;", 0x"&amp;B187&amp;", 0x"&amp;B188&amp;", 0x"&amp;B189&amp;", 0x"&amp;B190&amp;", 0x"&amp;B191</f>
         <v>.byte 0x8F, 0x8D, 0x5D, 0xB1, 0xDB, 0x10, 0xA1, 0x25, 0x7C, 0xC4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6">
       <c r="A25">
         <f>HEX2DEC(B25)</f>
         <v>52</v>
@@ -2803,14 +2797,14 @@
         <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>".byte 0x"&amp;B192&amp;", 0x"&amp;B193&amp;", 0x"&amp;B194&amp;", 0x"&amp;B195&amp;", 0x"&amp;B196&amp;", 0x"&amp;B197&amp;", 0x"&amp;B198&amp;", 0x"&amp;B199&amp;", 0x"&amp;B200&amp;", 0x"&amp;B201</f>
         <v>.byte 0xC6, 0xC7, 0xC5, 0xA9, 0x1E, 0xD8, 0xDA, 0xF3, 0x91, 0xB3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6">
       <c r="A26">
         <f>HEX2DEC(B26)</f>
         <v>32</v>
@@ -2822,14 +2816,14 @@
         <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>".byte 0x"&amp;B202&amp;", 0x"&amp;B203&amp;", 0x"&amp;B204&amp;", 0x"&amp;B205&amp;", 0x"&amp;B206&amp;", 0x"&amp;B207&amp;", 0x"&amp;B208&amp;", 0x"&amp;B209&amp;", 0x"&amp;B210&amp;", 0x"&amp;B211</f>
         <v>.byte 0x15, 0xA7, 0x38, 0x1, 0x0, 0x3, 0xED, 0x74, 0x2F, 0x3A</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6">
       <c r="A27">
         <f>HEX2DEC(B27)</f>
         <v>77</v>
@@ -2841,14 +2835,14 @@
         <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>".byte 0x"&amp;B212&amp;", 0x"&amp;B213&amp;", 0x"&amp;B214&amp;", 0x"&amp;B215&amp;", 0x"&amp;B216&amp;", 0x"&amp;B217&amp;", 0x"&amp;B218&amp;", 0x"&amp;B219&amp;", 0x"&amp;B220&amp;", 0x"&amp;B221</f>
         <v>.byte 0x18, 0x2D, 0x1C, 0xF5, 0x23, 0x4B, 0x2A, 0xE4, 0xD3, 0x3D</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6">
       <c r="A28">
         <f>HEX2DEC(B28)</f>
         <v>212</v>
@@ -2857,17 +2851,17 @@
         <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>".byte 0x"&amp;B222&amp;", 0x"&amp;B223&amp;", 0x"&amp;B224&amp;", 0x"&amp;B225&amp;", 0x"&amp;B226&amp;", 0x"&amp;B227&amp;", 0x"&amp;B228&amp;", 0x"&amp;B229&amp;", 0x"&amp;B230&amp;", 0x"&amp;B231</f>
         <v>.byte 0x36, 0xC0, 0x71, 0x47, 0x76, 0x52, 0x0C, 0xD1, 0xB4, 0x5B</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="A29">
         <f>HEX2DEC(B29)</f>
         <v>234</v>
@@ -2876,17 +2870,17 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>".byte 0x"&amp;B232&amp;", 0x"&amp;B233&amp;", 0x"&amp;B234&amp;", 0x"&amp;B235&amp;", 0x"&amp;B236&amp;", 0x"&amp;B237&amp;", 0x"&amp;B238&amp;", 0x"&amp;B239&amp;", 0x"&amp;B240&amp;", 0x"&amp;B241</f>
         <v>.byte 0x9C, 0xD9, 0xE0, 0x9F, 0xB0, 0x3C, 0xB5, 0x17, 0x88, 0x43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="A30">
         <f>HEX2DEC(B30)</f>
         <v>133</v>
@@ -2895,17 +2889,17 @@
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>".byte 0x"&amp;B242&amp;", 0x"&amp;B243&amp;", 0x"&amp;B244&amp;", 0x"&amp;B245&amp;", 0x"&amp;B246&amp;", 0x"&amp;B247&amp;", 0x"&amp;B248&amp;", 0x"&amp;B249&amp;", 0x"&amp;B250</f>
         <v>.byte 0x5C, 0xB9, 0xE9, 0x1A, 0x6D, 0x21, 0x2B, 0x37, 0x39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6">
       <c r="A31">
         <f>HEX2DEC(B31)</f>
         <v>36</v>
@@ -2917,11 +2911,11 @@
         <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6">
       <c r="A32">
         <f>HEX2DEC(B32)</f>
         <v>190</v>
@@ -2930,14 +2924,14 @@
         <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6">
       <c r="A33">
         <f>HEX2DEC(B33)</f>
         <v>87</v>
@@ -2949,11 +2943,11 @@
         <v>242</v>
       </c>
       <c r="D33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6">
       <c r="A34">
         <f>HEX2DEC(B34)</f>
         <v>104</v>
@@ -2962,14 +2956,14 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6">
       <c r="A35">
         <f>HEX2DEC(B35)</f>
         <v>154</v>
@@ -2978,14 +2972,14 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6">
       <c r="A36">
         <f>HEX2DEC(B36)</f>
         <v>226</v>
@@ -2994,14 +2988,14 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D36" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6">
       <c r="A37">
         <f>HEX2DEC(B37)</f>
         <v>231</v>
@@ -3010,14 +3004,14 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6">
       <c r="A38">
         <f>HEX2DEC(B38)</f>
         <v>105</v>
@@ -3026,14 +3020,14 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6">
       <c r="A39">
         <f>HEX2DEC(B39)</f>
         <v>97</v>
@@ -3042,14 +3036,14 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <f>HEX2DEC(B40)</f>
         <v>96</v>
@@ -3058,13 +3052,13 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <f>HEX2DEC(B41)</f>
         <v>19</v>
@@ -3076,11 +3070,11 @@
         <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6">
       <c r="A42">
         <f>HEX2DEC(B42)</f>
         <v>98</v>
@@ -3089,14 +3083,14 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6">
       <c r="A43">
         <f>HEX2DEC(B43)</f>
         <v>150</v>
@@ -3105,14 +3099,14 @@
         <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6">
       <c r="A44">
         <f>HEX2DEC(B44)</f>
         <v>6</v>
@@ -3121,14 +3115,14 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6">
       <c r="A45">
         <f>HEX2DEC(B45)</f>
         <v>83</v>
@@ -3140,11 +3134,11 @@
         <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6">
       <c r="A46">
         <f>HEX2DEC(B46)</f>
         <v>123</v>
@@ -3153,14 +3147,14 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6">
       <c r="A47">
         <f>HEX2DEC(B47)</f>
         <v>29</v>
@@ -3172,11 +3166,11 @@
         <v>205</v>
       </c>
       <c r="D47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6">
       <c r="A48">
         <f>HEX2DEC(B48)</f>
         <v>200</v>
@@ -3185,14 +3179,14 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6">
       <c r="A49">
         <f>HEX2DEC(B49)</f>
         <v>112</v>
@@ -3201,14 +3195,14 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <f>HEX2DEC(B50)</f>
         <v>69</v>
@@ -3220,10 +3214,10 @@
         <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <f>HEX2DEC(B51)</f>
         <v>153</v>
@@ -3232,14 +3226,14 @@
         <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6">
       <c r="A52">
         <f>HEX2DEC(B52)</f>
         <v>183</v>
@@ -3248,14 +3242,14 @@
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6">
       <c r="A53">
         <f>HEX2DEC(B53)</f>
         <v>189</v>
@@ -3264,14 +3258,14 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D53" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6">
       <c r="A54">
         <f>HEX2DEC(B54)</f>
         <v>40</v>
@@ -3283,11 +3277,11 @@
         <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6">
       <c r="A55">
         <f>HEX2DEC(B55)</f>
         <v>195</v>
@@ -3296,14 +3290,14 @@
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6">
       <c r="A56">
         <f>HEX2DEC(B56)</f>
         <v>31</v>
@@ -3315,11 +3309,11 @@
         <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6">
       <c r="A57">
         <f>HEX2DEC(B57)</f>
         <v>13</v>
@@ -3331,11 +3325,11 @@
         <v>220</v>
       </c>
       <c r="D57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6">
       <c r="A58">
         <f>HEX2DEC(B58)</f>
         <v>64</v>
@@ -3347,11 +3341,11 @@
         <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6">
       <c r="A59">
         <f>HEX2DEC(B59)</f>
         <v>187</v>
@@ -3360,14 +3354,14 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D59" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <f>HEX2DEC(B60)</f>
         <v>149</v>
@@ -3376,13 +3370,13 @@
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D60" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <f>HEX2DEC(B61)</f>
         <v>163</v>
@@ -3391,14 +3385,14 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6">
       <c r="A62">
         <f>HEX2DEC(B62)</f>
         <v>241</v>
@@ -3407,14 +3401,14 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D62" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6">
       <c r="A63">
         <f>HEX2DEC(B63)</f>
         <v>230</v>
@@ -3423,14 +3417,14 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6">
       <c r="A64">
         <f>HEX2DEC(B64)</f>
         <v>44</v>
@@ -3442,11 +3436,11 @@
         <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6">
       <c r="A65">
         <f>HEX2DEC(B65)</f>
         <v>240</v>
@@ -3455,14 +3449,14 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D65" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6">
       <c r="A66">
         <f>HEX2DEC(B66)</f>
         <v>114</v>
@@ -3471,14 +3465,14 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D66" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6">
       <c r="A67">
         <f>HEX2DEC(B67)</f>
         <v>155</v>
@@ -3487,14 +3481,14 @@
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D67" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <f>HEX2DEC(B68)</f>
         <v>110</v>
@@ -3503,13 +3497,13 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <f>HEX2DEC(B69)</f>
         <v>207</v>
@@ -3518,13 +3512,13 @@
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D69" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <f>HEX2DEC(B70)</f>
         <v>248</v>
@@ -3533,13 +3527,13 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D70" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <f>HEX2DEC(B71)</f>
         <v>94</v>
@@ -3548,13 +3542,13 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D71" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <f>HEX2DEC(B72)</f>
         <v>244</v>
@@ -3563,13 +3557,13 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D72" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <f>HEX2DEC(B73)</f>
         <v>89</v>
@@ -3578,13 +3572,13 @@
         <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <f>HEX2DEC(B74)</f>
         <v>170</v>
@@ -3593,13 +3587,13 @@
         <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D74" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <f>HEX2DEC(B75)</f>
         <v>73</v>
@@ -3611,10 +3605,10 @@
         <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <f>HEX2DEC(B76)</f>
         <v>84</v>
@@ -3626,10 +3620,10 @@
         <v>240</v>
       </c>
       <c r="D76" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <f>HEX2DEC(B77)</f>
         <v>194</v>
@@ -3638,13 +3632,13 @@
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D77" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <f>HEX2DEC(B78)</f>
         <v>151</v>
@@ -3653,13 +3647,13 @@
         <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D78" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <f>HEX2DEC(B79)</f>
         <v>115</v>
@@ -3671,10 +3665,10 @@
         <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <f>HEX2DEC(B80)</f>
         <v>132</v>
@@ -3686,10 +3680,10 @@
         <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <f>HEX2DEC(B81)</f>
         <v>76</v>
@@ -3701,10 +3695,10 @@
         <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <f>HEX2DEC(B82)</f>
         <v>74</v>
@@ -3716,10 +3710,10 @@
         <v>230</v>
       </c>
       <c r="D82" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <f>HEX2DEC(B83)</f>
         <v>80</v>
@@ -3731,10 +3725,10 @@
         <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <f>HEX2DEC(B84)</f>
         <v>174</v>
@@ -3743,13 +3737,13 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D84" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <f>HEX2DEC(B85)</f>
         <v>202</v>
@@ -3758,13 +3752,13 @@
         <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D85" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <f>HEX2DEC(B86)</f>
         <v>120</v>
@@ -3773,13 +3767,13 @@
         <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <f>HEX2DEC(B87)</f>
         <v>210</v>
@@ -3788,13 +3782,13 @@
         <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <f>HEX2DEC(B88)</f>
         <v>205</v>
@@ -3803,13 +3797,13 @@
         <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D88" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <f>HEX2DEC(B89)</f>
         <v>164</v>
@@ -3818,13 +3812,13 @@
         <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D89" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <f>HEX2DEC(B90)</f>
         <v>193</v>
@@ -3833,13 +3827,13 @@
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D90" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <f>HEX2DEC(B91)</f>
         <v>160</v>
@@ -3848,13 +3842,13 @@
         <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D91" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <f>HEX2DEC(B92)</f>
         <v>126</v>
@@ -3863,13 +3857,13 @@
         <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D92" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <f>HEX2DEC(B93)</f>
         <v>138</v>
@@ -3878,13 +3872,13 @@
         <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D93" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <f>HEX2DEC(B94)</f>
         <v>188</v>
@@ -3893,13 +3887,13 @@
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D94" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <f>HEX2DEC(B95)</f>
         <v>135</v>
@@ -3908,13 +3902,13 @@
         <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <f>HEX2DEC(B96)</f>
         <v>171</v>
@@ -3923,13 +3917,13 @@
         <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D96" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <f>HEX2DEC(B97)</f>
         <v>107</v>
@@ -3938,13 +3932,13 @@
         <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <f>HEX2DEC(B98)</f>
         <v>173</v>
@@ -3953,13 +3947,13 @@
         <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D98" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <f>HEX2DEC(B99)</f>
         <v>79</v>
@@ -3971,10 +3965,10 @@
         <v>235</v>
       </c>
       <c r="D99" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <f>HEX2DEC(B100)</f>
         <v>81</v>
@@ -3986,10 +3980,10 @@
         <v>237</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <f>HEX2DEC(B101)</f>
         <v>246</v>
@@ -3998,13 +3992,13 @@
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D101" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <f>HEX2DEC(B102)</f>
         <v>128</v>
@@ -4013,13 +4007,13 @@
         <v>80</v>
       </c>
       <c r="C102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <f>HEX2DEC(B103)</f>
         <v>127</v>
@@ -4028,13 +4022,13 @@
         <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
         <f>HEX2DEC(B104)</f>
         <v>129</v>
@@ -4043,13 +4037,13 @@
         <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
         <f>HEX2DEC(B105)</f>
         <v>130</v>
@@ -4058,13 +4052,13 @@
         <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
         <f>HEX2DEC(B106)</f>
         <v>144</v>
@@ -4073,13 +4067,13 @@
         <v>90</v>
       </c>
       <c r="C106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
         <f>HEX2DEC(B107)</f>
         <v>41</v>
@@ -4091,10 +4085,10 @@
         <v>191</v>
       </c>
       <c r="D107" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
         <f>HEX2DEC(B108)</f>
         <v>125</v>
@@ -4103,13 +4097,13 @@
         <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D108" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
         <f>HEX2DEC(B109)</f>
         <v>27</v>
@@ -4121,10 +4115,10 @@
         <v>207</v>
       </c>
       <c r="D109" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <f>HEX2DEC(B110)</f>
         <v>10</v>
@@ -4136,10 +4130,10 @@
         <v>223</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
         <f>HEX2DEC(B111)</f>
         <v>86</v>
@@ -4148,13 +4142,13 @@
         <v>56</v>
       </c>
       <c r="C111" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D111" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
         <f>HEX2DEC(B112)</f>
         <v>182</v>
@@ -4163,13 +4157,13 @@
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113">
         <f>HEX2DEC(B113)</f>
         <v>152</v>
@@ -4178,13 +4172,13 @@
         <v>98</v>
       </c>
       <c r="C113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D113" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114">
         <f>HEX2DEC(B114)</f>
         <v>121</v>
@@ -4193,13 +4187,13 @@
         <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D114" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115">
         <f>HEX2DEC(B115)</f>
         <v>66</v>
@@ -4211,10 +4205,10 @@
         <v>169</v>
       </c>
       <c r="D115" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
         <f>HEX2DEC(B116)</f>
         <v>162</v>
@@ -4223,13 +4217,13 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
         <f>HEX2DEC(B117)</f>
         <v>221</v>
@@ -4238,13 +4232,13 @@
         <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D117" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
         <f>HEX2DEC(B118)</f>
         <v>101</v>
@@ -4253,13 +4247,13 @@
         <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119">
         <f>HEX2DEC(B119)</f>
         <v>100</v>
@@ -4268,13 +4262,13 @@
         <v>64</v>
       </c>
       <c r="C119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D119" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
         <f>HEX2DEC(B120)</f>
         <v>90</v>
@@ -4283,13 +4277,13 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D120" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121">
         <f>HEX2DEC(B121)</f>
         <v>186</v>
@@ -4298,13 +4292,13 @@
         <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D121" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122">
         <f>HEX2DEC(B122)</f>
         <v>17</v>
@@ -4316,10 +4310,10 @@
         <v>217</v>
       </c>
       <c r="D122" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123">
         <f>HEX2DEC(B123)</f>
         <v>214</v>
@@ -4331,10 +4325,10 @@
         <v>161</v>
       </c>
       <c r="D123" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124">
         <f>HEX2DEC(B124)</f>
         <v>184</v>
@@ -4346,10 +4340,10 @@
         <v>162</v>
       </c>
       <c r="D124" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125">
         <f>HEX2DEC(B125)</f>
         <v>238</v>
@@ -4358,13 +4352,13 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D125" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126">
         <f>HEX2DEC(B126)</f>
         <v>229</v>
@@ -4373,13 +4367,13 @@
         <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D126" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127">
         <f>HEX2DEC(B127)</f>
         <v>178</v>
@@ -4388,13 +4382,13 @@
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D127" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128">
         <f>HEX2DEC(B128)</f>
         <v>70</v>
@@ -4406,10 +4400,10 @@
         <v>165</v>
       </c>
       <c r="D128" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129">
         <f>HEX2DEC(B129)</f>
         <v>15</v>
@@ -4421,10 +4415,10 @@
         <v>163</v>
       </c>
       <c r="D129" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130">
         <f>HEX2DEC(B130)</f>
         <v>7</v>
@@ -4433,13 +4427,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D130" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
         <f>HEX2DEC(B131)</f>
         <v>158</v>
@@ -4448,13 +4442,13 @@
         <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D131" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132">
         <f>HEX2DEC(B132)</f>
         <v>147</v>
@@ -4463,13 +4457,13 @@
         <v>93</v>
       </c>
       <c r="C132" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D132" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133">
         <f>HEX2DEC(B133)</f>
         <v>148</v>
@@ -4478,13 +4472,13 @@
         <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D133" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134">
         <f>HEX2DEC(B134)</f>
         <v>8</v>
@@ -4496,10 +4490,10 @@
         <v>225</v>
       </c>
       <c r="D134" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135">
         <f>HEX2DEC(B135)</f>
         <v>85</v>
@@ -4511,250 +4505,250 @@
         <v>241</v>
       </c>
       <c r="D135" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136">
         <f>HEX2DEC(B136)</f>
-        <v>88</v>
-      </c>
-      <c r="B136">
-        <v>58</v>
+        <v>223</v>
+      </c>
+      <c r="B136" t="s">
+        <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>243</v>
+        <v>368</v>
       </c>
       <c r="D136" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137">
         <f>HEX2DEC(B137)</f>
-        <v>223</v>
-      </c>
-      <c r="B137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137">
         <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="D137" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138">
         <f>HEX2DEC(B138)</f>
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B138">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="D138" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139">
         <f>HEX2DEC(B139)</f>
-        <v>4</v>
-      </c>
-      <c r="B139">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="D139" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140">
         <f>HEX2DEC(B140)</f>
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="B140">
+        <v>83</v>
       </c>
       <c r="C140" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D140" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141">
         <f>HEX2DEC(B141)</f>
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="B141">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="D141" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142">
         <f>HEX2DEC(B142)</f>
-        <v>9</v>
-      </c>
-      <c r="B142">
-        <v>9</v>
+        <v>111</v>
+      </c>
+      <c r="B142" t="s">
+        <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="D142" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
         <f>HEX2DEC(B143)</f>
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>265</v>
+        <v>386</v>
       </c>
       <c r="D143" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144">
         <f>HEX2DEC(B144)</f>
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C144" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D144" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145">
         <f>HEX2DEC(B145)</f>
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" t="s">
-        <v>378</v>
+        <v>307</v>
       </c>
       <c r="D145" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146">
         <f>HEX2DEC(B146)</f>
-        <v>157</v>
-      </c>
-      <c r="B146" t="s">
-        <v>137</v>
+        <v>48</v>
+      </c>
+      <c r="B146">
+        <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="D146" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147">
         <f>HEX2DEC(B147)</f>
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="B147">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C147" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="D147" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148">
         <f>HEX2DEC(B148)</f>
-        <v>134</v>
-      </c>
-      <c r="B148">
-        <v>86</v>
+        <v>227</v>
+      </c>
+      <c r="B148" t="s">
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="D148" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149">
         <f>HEX2DEC(B149)</f>
-        <v>227</v>
-      </c>
-      <c r="B149" t="s">
-        <v>127</v>
+        <v>5</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>373</v>
+        <v>644</v>
       </c>
       <c r="D149" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150">
         <f>HEX2DEC(B150)</f>
-        <v>5</v>
-      </c>
-      <c r="B150">
-        <v>5</v>
+        <v>222</v>
+      </c>
+      <c r="B150" t="s">
+        <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>645</v>
+        <v>367</v>
       </c>
       <c r="D150" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151">
         <f>HEX2DEC(B151)</f>
-        <v>222</v>
-      </c>
-      <c r="B151" t="s">
-        <v>126</v>
+        <v>88</v>
+      </c>
+      <c r="B151">
+        <v>58</v>
       </c>
       <c r="C151" t="s">
-        <v>368</v>
+        <v>649</v>
       </c>
       <c r="D151" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152">
         <f>HEX2DEC(B152)</f>
         <v>18</v>
@@ -4766,10 +4760,10 @@
         <v>216</v>
       </c>
       <c r="D152" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153">
         <f>HEX2DEC(B153)</f>
         <v>53</v>
@@ -4781,10 +4775,10 @@
         <v>181</v>
       </c>
       <c r="D153" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154">
         <f>HEX2DEC(B154)</f>
         <v>117</v>
@@ -4793,13 +4787,13 @@
         <v>75</v>
       </c>
       <c r="C154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D154" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155">
         <f>HEX2DEC(B155)</f>
         <v>59</v>
@@ -4811,10 +4805,10 @@
         <v>176</v>
       </c>
       <c r="D155" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156">
         <f>HEX2DEC(B156)</f>
         <v>137</v>
@@ -4823,13 +4817,13 @@
         <v>89</v>
       </c>
       <c r="C156" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D156" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157">
         <f>HEX2DEC(B157)</f>
         <v>38</v>
@@ -4841,10 +4835,10 @@
         <v>194</v>
       </c>
       <c r="D157" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158">
         <f>HEX2DEC(B158)</f>
         <v>146</v>
@@ -4853,13 +4847,13 @@
         <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D158" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159">
         <f>HEX2DEC(B159)</f>
         <v>215</v>
@@ -4868,13 +4862,13 @@
         <v>85</v>
       </c>
       <c r="C159" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D159" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160">
         <f>HEX2DEC(B160)</f>
         <v>62</v>
@@ -4886,10 +4880,10 @@
         <v>173</v>
       </c>
       <c r="D160" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161">
         <f>HEX2DEC(B161)</f>
         <v>172</v>
@@ -4898,13 +4892,13 @@
         <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D161" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162">
         <f>HEX2DEC(B162)</f>
         <v>122</v>
@@ -4913,13 +4907,13 @@
         <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D162" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163">
         <f>HEX2DEC(B163)</f>
         <v>39</v>
@@ -4931,10 +4925,10 @@
         <v>193</v>
       </c>
       <c r="D163" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164">
         <f>HEX2DEC(B164)</f>
         <v>204</v>
@@ -4943,13 +4937,13 @@
         <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D164" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165">
         <f>HEX2DEC(B165)</f>
         <v>72</v>
@@ -4961,10 +4955,10 @@
         <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166">
         <f>HEX2DEC(B166)</f>
         <v>106</v>
@@ -4973,13 +4967,13 @@
         <v>95</v>
       </c>
       <c r="C166" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D166" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167">
         <f>HEX2DEC(B167)</f>
         <v>51</v>
@@ -4991,10 +4985,10 @@
         <v>183</v>
       </c>
       <c r="D167" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168">
         <f>HEX2DEC(B168)</f>
         <v>34</v>
@@ -5006,10 +5000,10 @@
         <v>198</v>
       </c>
       <c r="D168" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169">
         <f>HEX2DEC(B169)</f>
         <v>78</v>
@@ -5021,10 +5015,10 @@
         <v>234</v>
       </c>
       <c r="D169" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170">
         <f>HEX2DEC(B170)</f>
         <v>2</v>
@@ -5033,13 +5027,13 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D170" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171">
         <f>HEX2DEC(B171)</f>
         <v>102</v>
@@ -5048,13 +5042,13 @@
         <v>66</v>
       </c>
       <c r="C171" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D171" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172">
         <f>HEX2DEC(B172)</f>
         <v>166</v>
@@ -5063,13 +5057,13 @@
         <v>101</v>
       </c>
       <c r="C172" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D172" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173">
         <f>HEX2DEC(B173)</f>
         <v>239</v>
@@ -5078,13 +5072,13 @@
         <v>104</v>
       </c>
       <c r="C173" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D173" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174">
         <f>HEX2DEC(B174)</f>
         <v>22</v>
@@ -5096,10 +5090,10 @@
         <v>212</v>
       </c>
       <c r="D174" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175">
         <f>HEX2DEC(B175)</f>
         <v>191</v>
@@ -5108,13 +5102,13 @@
         <v>84</v>
       </c>
       <c r="C175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D175" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176">
         <f>HEX2DEC(B176)</f>
         <v>20</v>
@@ -5126,10 +5120,10 @@
         <v>214</v>
       </c>
       <c r="D176" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177">
         <f>HEX2DEC(B177)</f>
         <v>236</v>
@@ -5138,13 +5132,13 @@
         <v>121</v>
       </c>
       <c r="C177" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D177" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178">
         <f>HEX2DEC(B178)</f>
         <v>65</v>
@@ -5156,10 +5150,10 @@
         <v>170</v>
       </c>
       <c r="D178" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179">
         <f>HEX2DEC(B179)</f>
         <v>203</v>
@@ -5168,13 +5162,13 @@
         <v>86</v>
       </c>
       <c r="C179" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D179" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180">
         <f>HEX2DEC(B180)</f>
         <v>220</v>
@@ -5183,13 +5177,13 @@
         <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D180" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181">
         <f>HEX2DEC(B181)</f>
         <v>208</v>
@@ -5198,13 +5192,13 @@
         <v>146</v>
       </c>
       <c r="C181" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D181" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182">
         <f>HEX2DEC(B182)</f>
         <v>143</v>
@@ -5213,13 +5207,13 @@
         <v>134</v>
       </c>
       <c r="C182" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D182" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183">
         <f>HEX2DEC(B183)</f>
         <v>141</v>
@@ -5228,13 +5222,13 @@
         <v>133</v>
       </c>
       <c r="C183" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D183" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184">
         <f>HEX2DEC(B184)</f>
         <v>93</v>
@@ -5243,13 +5237,13 @@
         <v>99</v>
       </c>
       <c r="C184" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D184" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185">
         <f>HEX2DEC(B185)</f>
         <v>177</v>
@@ -5258,13 +5252,13 @@
         <v>145</v>
       </c>
       <c r="C185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D185" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186">
         <f>HEX2DEC(B186)</f>
         <v>219</v>
@@ -5273,13 +5267,13 @@
         <v>136</v>
       </c>
       <c r="C186" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D186" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187">
         <f>HEX2DEC(B187)</f>
         <v>16</v>
@@ -5291,10 +5285,10 @@
         <v>218</v>
       </c>
       <c r="D187" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188">
         <f>HEX2DEC(B188)</f>
         <v>161</v>
@@ -5303,13 +5297,13 @@
         <v>132</v>
       </c>
       <c r="C188" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D188" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189">
         <f>HEX2DEC(B189)</f>
         <v>37</v>
@@ -5321,10 +5315,10 @@
         <v>195</v>
       </c>
       <c r="D189" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190">
         <f>HEX2DEC(B190)</f>
         <v>124</v>
@@ -5336,10 +5330,10 @@
         <v>195</v>
       </c>
       <c r="D190" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191">
         <f>HEX2DEC(B191)</f>
         <v>196</v>
@@ -5348,13 +5342,13 @@
         <v>143</v>
       </c>
       <c r="C191" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D191" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192">
         <f>HEX2DEC(B192)</f>
         <v>198</v>
@@ -5363,13 +5357,13 @@
         <v>144</v>
       </c>
       <c r="C192" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D192" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193">
         <f>HEX2DEC(B193)</f>
         <v>199</v>
@@ -5378,13 +5372,13 @@
         <v>141</v>
       </c>
       <c r="C193" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D193" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194">
         <f>HEX2DEC(B194)</f>
         <v>197</v>
@@ -5393,13 +5387,13 @@
         <v>142</v>
       </c>
       <c r="C194" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D194" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195">
         <f>HEX2DEC(B195)</f>
         <v>169</v>
@@ -5408,13 +5402,13 @@
         <v>59</v>
       </c>
       <c r="C195" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D195" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196">
         <f>HEX2DEC(B196)</f>
         <v>30</v>
@@ -5426,10 +5420,10 @@
         <v>204</v>
       </c>
       <c r="D196" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197">
         <f>HEX2DEC(B197)</f>
         <v>216</v>
@@ -5438,13 +5432,13 @@
         <v>44</v>
       </c>
       <c r="C197" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D197" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198">
         <f>HEX2DEC(B198)</f>
         <v>218</v>
@@ -5453,13 +5447,13 @@
         <v>47</v>
       </c>
       <c r="C198" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D198" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199">
         <f>HEX2DEC(B199)</f>
         <v>243</v>
@@ -5468,13 +5462,13 @@
         <v>46</v>
       </c>
       <c r="C199" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D199" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200">
         <f>HEX2DEC(B200)</f>
         <v>145</v>
@@ -5483,13 +5477,13 @@
         <v>91</v>
       </c>
       <c r="C200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D200" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201">
         <f>HEX2DEC(B201)</f>
         <v>179</v>
@@ -5498,13 +5492,13 @@
         <v>60</v>
       </c>
       <c r="C201" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D201" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202">
         <f>HEX2DEC(B202)</f>
         <v>21</v>
@@ -5516,10 +5510,10 @@
         <v>213</v>
       </c>
       <c r="D202" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203">
         <f>HEX2DEC(B203)</f>
         <v>167</v>
@@ -5528,13 +5522,13 @@
         <v>43</v>
       </c>
       <c r="C203" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D203" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204">
         <f>HEX2DEC(B204)</f>
         <v>56</v>
@@ -5546,10 +5540,10 @@
         <v>179</v>
       </c>
       <c r="D204" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205">
         <f>HEX2DEC(B205)</f>
         <v>1</v>
@@ -5558,13 +5552,13 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D205" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206">
         <f>HEX2DEC(B206)</f>
         <v>0</v>
@@ -5576,10 +5570,10 @@
         <v>227</v>
       </c>
       <c r="D206" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207">
         <f>HEX2DEC(B207)</f>
         <v>3</v>
@@ -5591,10 +5585,10 @@
         <v>228</v>
       </c>
       <c r="D207" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208">
         <f>HEX2DEC(B208)</f>
         <v>237</v>
@@ -5603,13 +5597,13 @@
         <v>130</v>
       </c>
       <c r="C208" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D208" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209">
         <f>HEX2DEC(B209)</f>
         <v>116</v>
@@ -5618,13 +5612,13 @@
         <v>74</v>
       </c>
       <c r="C209" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D209" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210">
         <f>HEX2DEC(B210)</f>
         <v>47</v>
@@ -5636,10 +5630,10 @@
         <v>186</v>
       </c>
       <c r="D210" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211">
         <f>HEX2DEC(B211)</f>
         <v>58</v>
@@ -5651,10 +5645,10 @@
         <v>177</v>
       </c>
       <c r="D211" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212">
         <f>HEX2DEC(B212)</f>
         <v>24</v>
@@ -5666,10 +5660,10 @@
         <v>210</v>
       </c>
       <c r="D212" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213">
         <f>HEX2DEC(B213)</f>
         <v>45</v>
@@ -5681,10 +5675,10 @@
         <v>188</v>
       </c>
       <c r="D213" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214">
         <f>HEX2DEC(B214)</f>
         <v>28</v>
@@ -5696,10 +5690,10 @@
         <v>206</v>
       </c>
       <c r="D214" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215">
         <f>HEX2DEC(B215)</f>
         <v>245</v>
@@ -5708,13 +5702,13 @@
         <v>61</v>
       </c>
       <c r="C215" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D215" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216">
         <f>HEX2DEC(B216)</f>
         <v>35</v>
@@ -5726,10 +5720,10 @@
         <v>197</v>
       </c>
       <c r="D216" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217">
         <f>HEX2DEC(B217)</f>
         <v>75</v>
@@ -5741,10 +5735,10 @@
         <v>231</v>
       </c>
       <c r="D217" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218">
         <f>HEX2DEC(B218)</f>
         <v>42</v>
@@ -5756,10 +5750,10 @@
         <v>190</v>
       </c>
       <c r="D218" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219">
         <f>HEX2DEC(B219)</f>
         <v>228</v>
@@ -5768,13 +5762,13 @@
         <v>56</v>
       </c>
       <c r="C219" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D219" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220">
         <f>HEX2DEC(B220)</f>
         <v>211</v>
@@ -5783,13 +5777,13 @@
         <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D220" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221">
         <f>HEX2DEC(B221)</f>
         <v>61</v>
@@ -5801,10 +5795,10 @@
         <v>174</v>
       </c>
       <c r="D221" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222">
         <f>HEX2DEC(B222)</f>
         <v>54</v>
@@ -5816,10 +5810,10 @@
         <v>229</v>
       </c>
       <c r="D222" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223">
         <f>HEX2DEC(B223)</f>
         <v>192</v>
@@ -5828,13 +5822,13 @@
         <v>74</v>
       </c>
       <c r="C223" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D223" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224">
         <f>HEX2DEC(B224)</f>
         <v>113</v>
@@ -5843,13 +5837,13 @@
         <v>71</v>
       </c>
       <c r="C224" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D224" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225">
         <f>HEX2DEC(B225)</f>
         <v>71</v>
@@ -5861,10 +5855,10 @@
         <v>166</v>
       </c>
       <c r="D225" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226">
         <f>HEX2DEC(B226)</f>
         <v>118</v>
@@ -5873,13 +5867,13 @@
         <v>76</v>
       </c>
       <c r="C226" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D226" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227">
         <f>HEX2DEC(B227)</f>
         <v>82</v>
@@ -5891,10 +5885,10 @@
         <v>238</v>
       </c>
       <c r="D227" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228">
         <f>HEX2DEC(B228)</f>
         <v>12</v>
@@ -5906,10 +5900,10 @@
         <v>221</v>
       </c>
       <c r="D228" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229">
         <f>HEX2DEC(B229)</f>
         <v>209</v>
@@ -5918,13 +5912,13 @@
         <v>76</v>
       </c>
       <c r="C229" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D229" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230">
         <f>HEX2DEC(B230)</f>
         <v>180</v>
@@ -5933,13 +5927,13 @@
         <v>75</v>
       </c>
       <c r="C230" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D230" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231">
         <f>HEX2DEC(B231)</f>
         <v>91</v>
@@ -5948,13 +5942,13 @@
         <v>77</v>
       </c>
       <c r="C231" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D231" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232">
         <f>HEX2DEC(B232)</f>
         <v>156</v>
@@ -5963,13 +5957,13 @@
         <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D232" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233">
         <f>HEX2DEC(B233)</f>
         <v>217</v>
@@ -5978,13 +5972,13 @@
         <v>67</v>
       </c>
       <c r="C233" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D233" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234">
         <f>HEX2DEC(B234)</f>
         <v>224</v>
@@ -5993,13 +5987,13 @@
         <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D234" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235">
         <f>HEX2DEC(B235)</f>
         <v>159</v>
@@ -6008,13 +6002,13 @@
         <v>87</v>
       </c>
       <c r="C235" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D235" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236">
         <f>HEX2DEC(B236)</f>
         <v>176</v>
@@ -6023,13 +6017,13 @@
         <v>122</v>
       </c>
       <c r="C236" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D236" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237">
         <f>HEX2DEC(B237)</f>
         <v>60</v>
@@ -6041,10 +6035,10 @@
         <v>175</v>
       </c>
       <c r="D237" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238">
         <f>HEX2DEC(B238)</f>
         <v>181</v>
@@ -6053,13 +6047,13 @@
         <v>89</v>
       </c>
       <c r="C238" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D238" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239">
         <f>HEX2DEC(B239)</f>
         <v>23</v>
@@ -6071,10 +6065,10 @@
         <v>211</v>
       </c>
       <c r="D239" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240">
         <f>HEX2DEC(B240)</f>
         <v>136</v>
@@ -6083,13 +6077,13 @@
         <v>88</v>
       </c>
       <c r="C240" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D240" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241">
         <f>HEX2DEC(B241)</f>
         <v>67</v>
@@ -6101,10 +6095,10 @@
         <v>168</v>
       </c>
       <c r="D241" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242">
         <f>HEX2DEC(B242)</f>
         <v>92</v>
@@ -6113,13 +6107,13 @@
         <v>148</v>
       </c>
       <c r="C242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D242" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243">
         <f>HEX2DEC(B243)</f>
         <v>185</v>
@@ -6128,13 +6122,13 @@
         <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D243" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244">
         <f>HEX2DEC(B244)</f>
         <v>233</v>
@@ -6143,13 +6137,13 @@
         <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D244" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245">
         <f>HEX2DEC(B245)</f>
         <v>26</v>
@@ -6161,10 +6155,10 @@
         <v>208</v>
       </c>
       <c r="D245" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246">
         <f>HEX2DEC(B246)</f>
         <v>109</v>
@@ -6173,13 +6167,13 @@
         <v>19</v>
       </c>
       <c r="C246" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D246" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247">
         <f>HEX2DEC(B247)</f>
         <v>33</v>
@@ -6191,10 +6185,10 @@
         <v>199</v>
       </c>
       <c r="D247" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248">
         <f>HEX2DEC(B248)</f>
         <v>43</v>
@@ -6206,10 +6200,10 @@
         <v>160</v>
       </c>
       <c r="D248" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249">
         <f>HEX2DEC(B249)</f>
         <v>55</v>
@@ -6221,10 +6215,10 @@
         <v>180</v>
       </c>
       <c r="D249" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250">
         <f>HEX2DEC(B250)</f>
         <v>57</v>
@@ -6236,12 +6230,12 @@
         <v>178</v>
       </c>
       <c r="D250" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D258">
-    <sortCondition ref="C1:C258"/>
+  <sortState ref="A2:D250">
+    <sortCondition ref="C121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/patch/ASM/ToD-DC-MonsterBookSort.xlsx
+++ b/patch/ASM/ToD-DC-MonsterBookSort.xlsx
@@ -678,9 +678,6 @@
     <t>Cave Shark</t>
   </si>
   <si>
-    <t>Milktran</t>
-  </si>
-  <si>
     <t>Hugo</t>
   </si>
   <si>
@@ -1978,6 +1975,9 @@
   </si>
   <si>
     <t>Miktran EX</t>
+  </si>
+  <si>
+    <t>Miktran</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2338,7 @@
   <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+      <selection activeCell="F6" sqref="F6:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2370,7 +2370,7 @@
         <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2385,10 +2385,10 @@
         <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2403,7 +2403,7 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2418,10 +2418,10 @@
         <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2436,7 +2436,7 @@
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>".byte 0x"&amp;B2&amp;", 0x"&amp;B3&amp;", 0x"&amp;B4&amp;", 0x"&amp;B5&amp;", 0x"&amp;B6&amp;", 0x"&amp;B7&amp;", 0x"&amp;B8&amp;", 0x"&amp;B9&amp;", 0x"&amp;B10&amp;", 0x"&amp;B11</f>
@@ -2455,7 +2455,7 @@
         <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>".byte 0x"&amp;B12&amp;", 0x"&amp;B13&amp;", 0x"&amp;B14&amp;", 0x"&amp;B15&amp;", 0x"&amp;B16&amp;", 0x"&amp;B17&amp;", 0x"&amp;B18&amp;", 0x"&amp;B19&amp;", 0x"&amp;B20&amp;", 0x"&amp;B21</f>
@@ -2471,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>".byte 0x"&amp;B22&amp;", 0x"&amp;B23&amp;", 0x"&amp;B24&amp;", 0x"&amp;B25&amp;", 0x"&amp;B26&amp;", 0x"&amp;B27&amp;", 0x"&amp;B28&amp;", 0x"&amp;B29&amp;", 0x"&amp;B30&amp;", 0x"&amp;B31</f>
@@ -2493,7 +2493,7 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>".byte 0x"&amp;B32&amp;", 0x"&amp;B33&amp;", 0x"&amp;B34&amp;", 0x"&amp;B35&amp;", 0x"&amp;B36&amp;", 0x"&amp;B37&amp;", 0x"&amp;B38&amp;", 0x"&amp;B39&amp;", 0x"&amp;B40&amp;", 0x"&amp;B41</f>
@@ -2509,10 +2509,10 @@
         <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>".byte 0x"&amp;B42&amp;", 0x"&amp;B43&amp;", 0x"&amp;B44&amp;", 0x"&amp;B45&amp;", 0x"&amp;B46&amp;", 0x"&amp;B47&amp;", 0x"&amp;B48&amp;", 0x"&amp;B49&amp;", 0x"&amp;B50&amp;", 0x"&amp;B51</f>
@@ -2528,10 +2528,10 @@
         <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>".byte 0x"&amp;B52&amp;", 0x"&amp;B53&amp;", 0x"&amp;B54&amp;", 0x"&amp;B55&amp;", 0x"&amp;B56&amp;", 0x"&amp;B57&amp;", 0x"&amp;B58&amp;", 0x"&amp;B59&amp;", 0x"&amp;B60&amp;", 0x"&amp;B61</f>
@@ -2547,10 +2547,10 @@
         <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>".byte 0x"&amp;B62&amp;", 0x"&amp;B63&amp;", 0x"&amp;B64&amp;", 0x"&amp;B65&amp;", 0x"&amp;B66&amp;", 0x"&amp;B67&amp;", 0x"&amp;B68&amp;", 0x"&amp;B69&amp;", 0x"&amp;B70&amp;", 0x"&amp;B71</f>
@@ -2566,10 +2566,10 @@
         <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>".byte 0x"&amp;B72&amp;", 0x"&amp;B73&amp;", 0x"&amp;B74&amp;", 0x"&amp;B75&amp;", 0x"&amp;B76&amp;", 0x"&amp;B77&amp;", 0x"&amp;B78&amp;", 0x"&amp;B79&amp;", 0x"&amp;B80&amp;", 0x"&amp;B81</f>
@@ -2585,10 +2585,10 @@
         <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>".byte 0x"&amp;B82&amp;", 0x"&amp;B83&amp;", 0x"&amp;B84&amp;", 0x"&amp;B85&amp;", 0x"&amp;B86&amp;", 0x"&amp;B87&amp;", 0x"&amp;B88&amp;", 0x"&amp;B89&amp;", 0x"&amp;B90&amp;", 0x"&amp;B91</f>
@@ -2604,10 +2604,10 @@
         <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>".byte 0x"&amp;B92&amp;", 0x"&amp;B93&amp;", 0x"&amp;B94&amp;", 0x"&amp;B95&amp;", 0x"&amp;B96&amp;", 0x"&amp;B97&amp;", 0x"&amp;B98&amp;", 0x"&amp;B99&amp;", 0x"&amp;B100&amp;", 0x"&amp;B101</f>
@@ -2626,7 +2626,7 @@
         <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>".byte 0x"&amp;B102&amp;", 0x"&amp;B103&amp;", 0x"&amp;B104&amp;", 0x"&amp;B105&amp;", 0x"&amp;B106&amp;", 0x"&amp;B107&amp;", 0x"&amp;B108&amp;", 0x"&amp;B109&amp;", 0x"&amp;B110&amp;", 0x"&amp;B111</f>
@@ -2642,10 +2642,10 @@
         <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>".byte 0x"&amp;B112&amp;", 0x"&amp;B113&amp;", 0x"&amp;B114&amp;", 0x"&amp;B115&amp;", 0x"&amp;B116&amp;", 0x"&amp;B117&amp;", 0x"&amp;B118&amp;", 0x"&amp;B119&amp;", 0x"&amp;B120&amp;", 0x"&amp;B121</f>
@@ -2661,10 +2661,10 @@
         <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>".byte 0x"&amp;B122&amp;", 0x"&amp;B123&amp;", 0x"&amp;B124&amp;", 0x"&amp;B125&amp;", 0x"&amp;B126&amp;", 0x"&amp;B127&amp;", 0x"&amp;B128&amp;", 0x"&amp;B129&amp;", 0x"&amp;B130&amp;", 0x"&amp;B131</f>
@@ -2680,10 +2680,10 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>".byte 0x"&amp;B132&amp;", 0x"&amp;B133&amp;", 0x"&amp;B134&amp;", 0x"&amp;B135&amp;", 0x"&amp;B136&amp;", 0x"&amp;B137&amp;", 0x"&amp;B138&amp;", 0x"&amp;B139&amp;", 0x"&amp;B140&amp;", 0x"&amp;B141</f>
@@ -2702,11 +2702,11 @@
         <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>".byte 0x"&amp;B142&amp;", 0x"&amp;B143&amp;", 0x"&amp;B144&amp;", 0x"&amp;B145&amp;", 0x"&amp;B146&amp;", 0x"&amp;B147&amp;", 0x"&amp;B148&amp;", 0x"&amp;B149&amp;", 0x"&amp;B150&amp;", 0x"&amp;B151</f>
-        <v>.byte 0x6F, 0xF2, 0xE8, 0x9D, 0x30, 0x86, 0xE3, 0x5, 0xDE, 0x58</v>
+        <v>.byte 0x6F, 0xF2, 0xE8, 0x9D, 0x30, 0x86, 0xE3, 0x5, 0xDE, 0x12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2721,11 +2721,11 @@
         <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>".byte 0x"&amp;B152&amp;", 0x"&amp;B153&amp;", 0x"&amp;B154&amp;", 0x"&amp;B155&amp;", 0x"&amp;B156&amp;", 0x"&amp;B157&amp;", 0x"&amp;B158&amp;", 0x"&amp;B159&amp;", 0x"&amp;B160&amp;", 0x"&amp;B161</f>
-        <v>.byte 0x12, 0x35, 0x75, 0x3B, 0x89, 0x26, 0x92, 0xD7, 0x3E, 0xAC</v>
+        <v>.byte 0x58, 0x35, 0x75, 0x3B, 0x89, 0x26, 0x92, 0xD7, 0x3E, 0xAC</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2737,10 +2737,10 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>".byte 0x"&amp;B162&amp;", 0x"&amp;B163&amp;", 0x"&amp;B164&amp;", 0x"&amp;B165&amp;", 0x"&amp;B166&amp;", 0x"&amp;B167&amp;", 0x"&amp;B168&amp;", 0x"&amp;B169&amp;", 0x"&amp;B170&amp;", 0x"&amp;B171</f>
@@ -2756,10 +2756,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>".byte 0x"&amp;B172&amp;", 0x"&amp;B173&amp;", 0x"&amp;B174&amp;", 0x"&amp;B175&amp;", 0x"&amp;B176&amp;", 0x"&amp;B177&amp;", 0x"&amp;B178&amp;", 0x"&amp;B179&amp;", 0x"&amp;B180&amp;", 0x"&amp;B181</f>
@@ -2778,7 +2778,7 @@
         <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>".byte 0x"&amp;B182&amp;", 0x"&amp;B183&amp;", 0x"&amp;B184&amp;", 0x"&amp;B185&amp;", 0x"&amp;B186&amp;", 0x"&amp;B187&amp;", 0x"&amp;B188&amp;", 0x"&amp;B189&amp;", 0x"&amp;B190&amp;", 0x"&amp;B191</f>
@@ -2797,7 +2797,7 @@
         <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>".byte 0x"&amp;B192&amp;", 0x"&amp;B193&amp;", 0x"&amp;B194&amp;", 0x"&amp;B195&amp;", 0x"&amp;B196&amp;", 0x"&amp;B197&amp;", 0x"&amp;B198&amp;", 0x"&amp;B199&amp;", 0x"&amp;B200&amp;", 0x"&amp;B201</f>
@@ -2816,7 +2816,7 @@
         <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>".byte 0x"&amp;B202&amp;", 0x"&amp;B203&amp;", 0x"&amp;B204&amp;", 0x"&amp;B205&amp;", 0x"&amp;B206&amp;", 0x"&amp;B207&amp;", 0x"&amp;B208&amp;", 0x"&amp;B209&amp;", 0x"&amp;B210&amp;", 0x"&amp;B211</f>
@@ -2832,10 +2832,10 @@
         <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>".byte 0x"&amp;B212&amp;", 0x"&amp;B213&amp;", 0x"&amp;B214&amp;", 0x"&amp;B215&amp;", 0x"&amp;B216&amp;", 0x"&amp;B217&amp;", 0x"&amp;B218&amp;", 0x"&amp;B219&amp;", 0x"&amp;B220&amp;", 0x"&amp;B221</f>
@@ -2851,10 +2851,10 @@
         <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>".byte 0x"&amp;B222&amp;", 0x"&amp;B223&amp;", 0x"&amp;B224&amp;", 0x"&amp;B225&amp;", 0x"&amp;B226&amp;", 0x"&amp;B227&amp;", 0x"&amp;B228&amp;", 0x"&amp;B229&amp;", 0x"&amp;B230&amp;", 0x"&amp;B231</f>
@@ -2870,10 +2870,10 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>".byte 0x"&amp;B232&amp;", 0x"&amp;B233&amp;", 0x"&amp;B234&amp;", 0x"&amp;B235&amp;", 0x"&amp;B236&amp;", 0x"&amp;B237&amp;", 0x"&amp;B238&amp;", 0x"&amp;B239&amp;", 0x"&amp;B240&amp;", 0x"&amp;B241</f>
@@ -2889,10 +2889,10 @@
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>".byte 0x"&amp;B242&amp;", 0x"&amp;B243&amp;", 0x"&amp;B244&amp;", 0x"&amp;B245&amp;", 0x"&amp;B246&amp;", 0x"&amp;B247&amp;", 0x"&amp;B248&amp;", 0x"&amp;B249&amp;", 0x"&amp;B250</f>
@@ -2911,7 +2911,7 @@
         <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -2924,10 +2924,10 @@
         <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -2940,10 +2940,10 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -2956,10 +2956,10 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2972,10 +2972,10 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -2988,10 +2988,10 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -3004,10 +3004,10 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -3020,10 +3020,10 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -3036,10 +3036,10 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -3052,10 +3052,10 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3070,7 +3070,7 @@
         <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -3083,10 +3083,10 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -3099,10 +3099,10 @@
         <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -3115,10 +3115,10 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -3131,10 +3131,10 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -3147,10 +3147,10 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -3166,7 +3166,7 @@
         <v>205</v>
       </c>
       <c r="D47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -3179,10 +3179,10 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -3195,10 +3195,10 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -3214,7 +3214,7 @@
         <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3226,10 +3226,10 @@
         <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -3258,10 +3258,10 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D53" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -3277,7 +3277,7 @@
         <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -3290,10 +3290,10 @@
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D55" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -3309,7 +3309,7 @@
         <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -3322,10 +3322,10 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -3341,7 +3341,7 @@
         <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -3354,10 +3354,10 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D59" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3370,10 +3370,10 @@
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3385,10 +3385,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -3401,10 +3401,10 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D62" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -3417,10 +3417,10 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D63" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -3436,7 +3436,7 @@
         <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -3449,10 +3449,10 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D65" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -3465,10 +3465,10 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D66" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -3481,10 +3481,10 @@
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D67" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -3497,10 +3497,10 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3512,10 +3512,10 @@
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D69" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3527,10 +3527,10 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D70" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3542,10 +3542,10 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3557,10 +3557,10 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D72" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3572,10 +3572,10 @@
         <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D73" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3587,10 +3587,10 @@
         <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3605,7 +3605,7 @@
         <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3617,10 +3617,10 @@
         <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3632,10 +3632,10 @@
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D77" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3647,10 +3647,10 @@
         <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D78" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3665,7 +3665,7 @@
         <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3680,7 +3680,7 @@
         <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3692,10 +3692,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3707,10 +3707,10 @@
         <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3722,10 +3722,10 @@
         <v>50</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3737,10 +3737,10 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D84" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3752,10 +3752,10 @@
         <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D85" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3767,10 +3767,10 @@
         <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D86" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3782,10 +3782,10 @@
         <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D87" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3797,10 +3797,10 @@
         <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D88" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3812,10 +3812,10 @@
         <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D89" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3827,10 +3827,10 @@
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D90" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3842,10 +3842,10 @@
         <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3857,10 +3857,10 @@
         <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D92" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3872,10 +3872,10 @@
         <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D93" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3887,10 +3887,10 @@
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D94" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3902,10 +3902,10 @@
         <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D95" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3917,10 +3917,10 @@
         <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3932,10 +3932,10 @@
         <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D97" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3947,10 +3947,10 @@
         <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D98" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3962,10 +3962,10 @@
         <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D99" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3977,10 +3977,10 @@
         <v>51</v>
       </c>
       <c r="C100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3992,10 +3992,10 @@
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D101" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4007,10 +4007,10 @@
         <v>80</v>
       </c>
       <c r="C102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4022,10 +4022,10 @@
         <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D104" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4052,10 +4052,10 @@
         <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D105" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4067,10 +4067,10 @@
         <v>90</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4085,7 +4085,7 @@
         <v>191</v>
       </c>
       <c r="D107" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4097,10 +4097,10 @@
         <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D108" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4115,7 +4115,7 @@
         <v>207</v>
       </c>
       <c r="D109" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4127,10 +4127,10 @@
         <v>38</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4142,10 +4142,10 @@
         <v>56</v>
       </c>
       <c r="C111" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4157,10 +4157,10 @@
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D112" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4172,10 +4172,10 @@
         <v>98</v>
       </c>
       <c r="C113" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D113" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4187,10 +4187,10 @@
         <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4205,7 +4205,7 @@
         <v>169</v>
       </c>
       <c r="D115" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4217,10 +4217,10 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D116" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4232,10 +4232,10 @@
         <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D117" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4262,10 +4262,10 @@
         <v>64</v>
       </c>
       <c r="C119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D119" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4277,10 +4277,10 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D120" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4292,10 +4292,10 @@
         <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D121" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4307,10 +4307,10 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D122" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4325,7 +4325,7 @@
         <v>161</v>
       </c>
       <c r="D123" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4340,7 +4340,7 @@
         <v>162</v>
       </c>
       <c r="D124" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4352,10 +4352,10 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D125" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4367,10 +4367,10 @@
         <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D126" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4400,7 +4400,7 @@
         <v>165</v>
       </c>
       <c r="D128" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4415,7 +4415,7 @@
         <v>163</v>
       </c>
       <c r="D129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4427,10 +4427,10 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D130" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4442,10 +4442,10 @@
         <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>93</v>
       </c>
       <c r="C132" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D132" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4472,10 +4472,10 @@
         <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D133" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4487,10 +4487,10 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D134" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4502,10 +4502,10 @@
         <v>55</v>
       </c>
       <c r="C135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D135" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4517,10 +4517,10 @@
         <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D136" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4535,7 +4535,7 @@
         <v>184</v>
       </c>
       <c r="D137" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4547,10 +4547,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4562,10 +4562,10 @@
         <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D139" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4577,10 +4577,10 @@
         <v>83</v>
       </c>
       <c r="C140" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D140" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4592,10 +4592,10 @@
         <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D141" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4607,10 +4607,10 @@
         <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D142" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4622,10 +4622,10 @@
         <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D143" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4637,10 +4637,10 @@
         <v>138</v>
       </c>
       <c r="C144" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D144" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4652,10 +4652,10 @@
         <v>137</v>
       </c>
       <c r="C145" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4670,7 +4670,7 @@
         <v>185</v>
       </c>
       <c r="D146" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4682,10 +4682,10 @@
         <v>86</v>
       </c>
       <c r="C147" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D147" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4697,10 +4697,10 @@
         <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D148" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4712,10 +4712,10 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D149" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4727,40 +4727,40 @@
         <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D150" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
         <f>HEX2DEC(B151)</f>
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="B151">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
         <v>649</v>
       </c>
       <c r="D151" t="s">
-        <v>480</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
         <f>HEX2DEC(B152)</f>
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B152">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C152" t="s">
-        <v>216</v>
+        <v>648</v>
       </c>
       <c r="D152" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4775,7 +4775,7 @@
         <v>181</v>
       </c>
       <c r="D153" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4787,10 +4787,10 @@
         <v>75</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D154" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4805,7 +4805,7 @@
         <v>176</v>
       </c>
       <c r="D155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4817,10 +4817,10 @@
         <v>89</v>
       </c>
       <c r="C156" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D156" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4835,7 +4835,7 @@
         <v>194</v>
       </c>
       <c r="D157" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4847,10 +4847,10 @@
         <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D158" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4862,10 +4862,10 @@
         <v>85</v>
       </c>
       <c r="C159" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D159" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4880,7 +4880,7 @@
         <v>173</v>
       </c>
       <c r="D160" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4892,10 +4892,10 @@
         <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D161" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4907,10 +4907,10 @@
         <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D162" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4925,7 +4925,7 @@
         <v>193</v>
       </c>
       <c r="D163" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4937,10 +4937,10 @@
         <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D164" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4955,7 +4955,7 @@
         <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4967,10 +4967,10 @@
         <v>95</v>
       </c>
       <c r="C166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D166" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4985,7 +4985,7 @@
         <v>183</v>
       </c>
       <c r="D167" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5000,7 +5000,7 @@
         <v>198</v>
       </c>
       <c r="D168" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5012,10 +5012,10 @@
         <v>105</v>
       </c>
       <c r="C169" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D169" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5027,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D170" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5042,10 +5042,10 @@
         <v>66</v>
       </c>
       <c r="C171" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D171" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5057,10 +5057,10 @@
         <v>101</v>
       </c>
       <c r="C172" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D172" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5072,10 +5072,10 @@
         <v>104</v>
       </c>
       <c r="C173" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D173" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5090,7 +5090,7 @@
         <v>212</v>
       </c>
       <c r="D174" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5102,10 +5102,10 @@
         <v>84</v>
       </c>
       <c r="C175" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5120,7 +5120,7 @@
         <v>214</v>
       </c>
       <c r="D176" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5132,10 +5132,10 @@
         <v>121</v>
       </c>
       <c r="C177" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D177" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5150,7 +5150,7 @@
         <v>170</v>
       </c>
       <c r="D178" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5162,10 +5162,10 @@
         <v>86</v>
       </c>
       <c r="C179" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D179" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5177,10 +5177,10 @@
         <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D180" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5192,10 +5192,10 @@
         <v>146</v>
       </c>
       <c r="C181" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D181" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5207,10 +5207,10 @@
         <v>134</v>
       </c>
       <c r="C182" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D182" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5222,10 +5222,10 @@
         <v>133</v>
       </c>
       <c r="C183" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D183" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5237,10 +5237,10 @@
         <v>99</v>
       </c>
       <c r="C184" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D184" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5252,10 +5252,10 @@
         <v>145</v>
       </c>
       <c r="C185" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D185" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5267,10 +5267,10 @@
         <v>136</v>
       </c>
       <c r="C186" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D186" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5282,10 +5282,10 @@
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D187" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5297,10 +5297,10 @@
         <v>132</v>
       </c>
       <c r="C188" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D188" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5315,7 +5315,7 @@
         <v>195</v>
       </c>
       <c r="D189" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5330,7 +5330,7 @@
         <v>195</v>
       </c>
       <c r="D190" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5342,10 +5342,10 @@
         <v>143</v>
       </c>
       <c r="C191" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D191" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5357,10 +5357,10 @@
         <v>144</v>
       </c>
       <c r="C192" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D192" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5372,10 +5372,10 @@
         <v>141</v>
       </c>
       <c r="C193" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D193" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5387,10 +5387,10 @@
         <v>142</v>
       </c>
       <c r="C194" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D194" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5402,10 +5402,10 @@
         <v>59</v>
       </c>
       <c r="C195" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D195" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5420,7 +5420,7 @@
         <v>204</v>
       </c>
       <c r="D196" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5432,10 +5432,10 @@
         <v>44</v>
       </c>
       <c r="C197" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D197" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5447,10 +5447,10 @@
         <v>47</v>
       </c>
       <c r="C198" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D198" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5462,10 +5462,10 @@
         <v>46</v>
       </c>
       <c r="C199" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D199" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5477,10 +5477,10 @@
         <v>91</v>
       </c>
       <c r="C200" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D200" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5492,10 +5492,10 @@
         <v>60</v>
       </c>
       <c r="C201" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D201" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5510,7 +5510,7 @@
         <v>213</v>
       </c>
       <c r="D202" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5522,10 +5522,10 @@
         <v>43</v>
       </c>
       <c r="C203" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D203" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5540,7 +5540,7 @@
         <v>179</v>
       </c>
       <c r="D204" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5552,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D205" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5567,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D206" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5582,10 +5582,10 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D207" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5597,10 +5597,10 @@
         <v>130</v>
       </c>
       <c r="C208" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D208" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5612,10 +5612,10 @@
         <v>74</v>
       </c>
       <c r="C209" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D209" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5630,7 +5630,7 @@
         <v>186</v>
       </c>
       <c r="D210" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5645,7 +5645,7 @@
         <v>177</v>
       </c>
       <c r="D211" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5660,7 +5660,7 @@
         <v>210</v>
       </c>
       <c r="D212" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5675,7 +5675,7 @@
         <v>188</v>
       </c>
       <c r="D213" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5690,7 +5690,7 @@
         <v>206</v>
       </c>
       <c r="D214" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5702,10 +5702,10 @@
         <v>61</v>
       </c>
       <c r="C215" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D215" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5720,7 +5720,7 @@
         <v>197</v>
       </c>
       <c r="D216" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5732,10 +5732,10 @@
         <v>53</v>
       </c>
       <c r="C217" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D217" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5750,7 +5750,7 @@
         <v>190</v>
       </c>
       <c r="D218" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5762,10 +5762,10 @@
         <v>56</v>
       </c>
       <c r="C219" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D219" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5777,10 +5777,10 @@
         <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D220" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5795,7 +5795,7 @@
         <v>174</v>
       </c>
       <c r="D221" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5807,10 +5807,10 @@
         <v>36</v>
       </c>
       <c r="C222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D222" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5822,10 +5822,10 @@
         <v>74</v>
       </c>
       <c r="C223" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D223" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5837,10 +5837,10 @@
         <v>71</v>
       </c>
       <c r="C224" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D224" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5855,7 +5855,7 @@
         <v>166</v>
       </c>
       <c r="D225" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>76</v>
       </c>
       <c r="C226" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D226" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5882,10 +5882,10 @@
         <v>52</v>
       </c>
       <c r="C227" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D227" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5897,10 +5897,10 @@
         <v>69</v>
       </c>
       <c r="C228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D228" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5912,10 +5912,10 @@
         <v>76</v>
       </c>
       <c r="C229" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D229" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5927,10 +5927,10 @@
         <v>75</v>
       </c>
       <c r="C230" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D230" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5942,10 +5942,10 @@
         <v>77</v>
       </c>
       <c r="C231" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D231" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5957,10 +5957,10 @@
         <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D232" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5972,10 +5972,10 @@
         <v>67</v>
       </c>
       <c r="C233" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D233" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5987,10 +5987,10 @@
         <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D234" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6002,10 +6002,10 @@
         <v>87</v>
       </c>
       <c r="C235" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D235" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6017,10 +6017,10 @@
         <v>122</v>
       </c>
       <c r="C236" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D236" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6035,7 +6035,7 @@
         <v>175</v>
       </c>
       <c r="D237" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6047,10 +6047,10 @@
         <v>89</v>
       </c>
       <c r="C238" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D238" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6065,7 +6065,7 @@
         <v>211</v>
       </c>
       <c r="D239" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6077,10 +6077,10 @@
         <v>88</v>
       </c>
       <c r="C240" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D240" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6095,7 +6095,7 @@
         <v>168</v>
       </c>
       <c r="D241" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6107,10 +6107,10 @@
         <v>148</v>
       </c>
       <c r="C242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D242" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6122,10 +6122,10 @@
         <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D243" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6137,10 +6137,10 @@
         <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D244" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6155,7 +6155,7 @@
         <v>208</v>
       </c>
       <c r="D245" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6167,10 +6167,10 @@
         <v>19</v>
       </c>
       <c r="C246" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D246" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6185,7 +6185,7 @@
         <v>199</v>
       </c>
       <c r="D247" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6200,7 +6200,7 @@
         <v>160</v>
       </c>
       <c r="D248" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6215,7 +6215,7 @@
         <v>180</v>
       </c>
       <c r="D249" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6230,12 +6230,12 @@
         <v>178</v>
       </c>
       <c r="D250" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D250">
-    <sortCondition ref="C121"/>
+    <sortCondition ref="C136"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
